--- a/biology/Botanique/Forêt_de_Mercoire/Forêt_de_Mercoire.xlsx
+++ b/biology/Botanique/Forêt_de_Mercoire/Forêt_de_Mercoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Mercoire</t>
+          <t>Forêt_de_Mercoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Mercoire est un massif forestier situé en Margeride dans le département de la Lozère et qui s'étend sur plus de 11 000 hectares.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Mercoire</t>
+          <t>Forêt_de_Mercoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Située à quelques kilomètres au sud de Langogne et à l'est de Châteauneuf-de-Randon, la forêt de Mercoire marque à l'est la limite entre les départements de la Lozère et de l'Ardèche. Son altitude varie entre 970 et 1 503 m, culminant au Moure de la Gardille, sommet sur lequel deux importantes rivières prennent leur source : l'Allier et le Chassezac. La forêt abrite en son cœur l'ancienne abbaye cistercienne de Mercoire, reconvertie en ferme.
 Elle s'étend sur le territoire des sept communes suivantes :
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Mercoire</t>
+          <t>Forêt_de_Mercoire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt de Mercoire fut de 1764 à 1767 le lieu où de nombreuses personnes furent victimes de la Bête du Gévaudan.
 </t>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Mercoire</t>
+          <t>Forêt_de_Mercoire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,11 +597,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle est recensée au sein de l'INPN en tant que zone naturelle d'intérêt écologique, faunistique et floristique (ZNIEFF de type II).
-Faune
-Flore</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est recensée au sein de l'INPN en tant que zone naturelle d'intérêt écologique, faunistique et floristique (ZNIEFF de type II).
+</t>
         </is>
       </c>
     </row>
